--- a/Test Documents/Test Documents for Suppliers/Test Case Template For Suppliers.xlsx
+++ b/Test Documents/Test Documents for Suppliers/Test Case Template For Suppliers.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
   <si>
     <t>Test Case Id</t>
   </si>
@@ -246,6 +246,9 @@
     <t>Checking if Flights,Visa,Tours,Bookings</t>
   </si>
   <si>
+    <t>Flights,Visa are not displayed,Tours,Bookings are displayed</t>
+  </si>
+  <si>
     <t>is displayed and is clickable</t>
   </si>
   <si>
@@ -255,10 +258,16 @@
     <t>Flights to be clickable</t>
   </si>
   <si>
+    <t>Flights is not present</t>
+  </si>
+  <si>
     <t>Supplier needs to click on Visa</t>
   </si>
   <si>
     <t>Visa to be clickable</t>
+  </si>
+  <si>
+    <t>Visa is not present</t>
   </si>
   <si>
     <t>Supplier needs to click on Tours</t>
@@ -947,30 +956,28 @@
       <c r="I24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="J24" s="1" t="str">
-        <f t="shared" ref="J24:J28" si="1">CONCATENATE(LEFT(F24,FIND(" ",F24)),"is",RIGHT(F24,LEN(F24) - (FIND(CHAR(160),SUBSTITUTE(F24," ",CHAR(160),3)) - 1)))</f>
-        <v>Flights,Visa,Tours,Bookings is displayed</v>
+      <c r="J24" s="1" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25" s="1">
         <v>2.0</v>
       </c>
       <c r="E25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="J25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Flights is clickable</v>
+      <c r="J25" s="1" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -978,14 +985,13 @@
         <v>3.0</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>Visa is clickable</v>
+        <v>79</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -993,13 +999,13 @@
         <v>4.0</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J27" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="J27:J28" si="1">CONCATENATE(LEFT(F27,FIND(" ",F27)),"is",RIGHT(F27,LEN(F27) - (FIND(CHAR(160),SUBSTITUTE(F27," ",CHAR(160),3)) - 1)))</f>
         <v>Tours is clickable</v>
       </c>
     </row>
@@ -1011,7 +1017,7 @@
         <v>57</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J28" s="5" t="str">
         <f t="shared" si="1"/>
